--- a/biology/Botanique/Trois_jardins_les_plus_célèbres_du_Japon/Trois_jardins_les_plus_célèbres_du_Japon.xlsx
+++ b/biology/Botanique/Trois_jardins_les_plus_célèbres_du_Japon/Trois_jardins_les_plus_célèbres_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trois_jardins_les_plus_c%C3%A9l%C3%A8bres_du_Japon</t>
+          <t>Trois_jardins_les_plus_célèbres_du_Japon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les trois jardins les plus célèbres du Japon (日本三名園, Nihon sanmeien?, ou « trois plus beaux jardins du Japon ») sont le Kenroku-en à Kanazawa, le Kōraku-en à Okayama et le Kairaku-en à Mito[1].
+Les trois jardins les plus célèbres du Japon (日本三名園, Nihon sanmeien?, ou « trois plus beaux jardins du Japon ») sont le Kenroku-en à Kanazawa, le Kōraku-en à Okayama et le Kairaku-en à Mito.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trois_jardins_les_plus_c%C3%A9l%C3%A8bres_du_Japon</t>
+          <t>Trois_jardins_les_plus_célèbres_du_Japon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces trois jardins sont de style kaiyū (回遊式, kaiyū-shiki?, « style circuit »), c'est-à-dire qu'ils s'admirent en marchant dans leurs allées, et non pas en restant assis dans une demeure[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces trois jardins sont de style kaiyū (回遊式, kaiyū-shiki?, « style circuit »), c'est-à-dire qu'ils s'admirent en marchant dans leurs allées, et non pas en restant assis dans une demeure.
 Le Kenroku-en (兼六園?, « jardin des six attributs ») a été développé des années 1620 aux années 1840 par la famille Maeda, les dirigeants de l'ancienne province de Kaga.
 Le jardin Kōraku-en (後楽園庭園, Kōrakuen Teien?) a été construit en 1700 à la demande de Ikeda Tsunamasa, daimyo d'Okayama. Il a pris sa forme actuelle en 1863.
 Le Kairaku-en (偕楽園?) est né en 1841 sous les ordres de Tokugawa Nariaki.
